--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3274.781805366641</v>
+        <v>3578.090314102174</v>
       </c>
       <c r="AB2" t="n">
-        <v>4480.700939279743</v>
+        <v>4895.701021958742</v>
       </c>
       <c r="AC2" t="n">
-        <v>4053.06913033798</v>
+        <v>4428.462187582355</v>
       </c>
       <c r="AD2" t="n">
-        <v>3274781.805366641</v>
+        <v>3578090.314102174</v>
       </c>
       <c r="AE2" t="n">
-        <v>4480700.939279743</v>
+        <v>4895701.021958742</v>
       </c>
       <c r="AF2" t="n">
         <v>2.598746696168311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4053069.13033798</v>
+        <v>4428462.187582355</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1179.877492726327</v>
+        <v>1336.426513244196</v>
       </c>
       <c r="AB3" t="n">
-        <v>1614.360438069457</v>
+        <v>1828.557714397358</v>
       </c>
       <c r="AC3" t="n">
-        <v>1460.288143629213</v>
+        <v>1654.042732532144</v>
       </c>
       <c r="AD3" t="n">
-        <v>1179877.492726327</v>
+        <v>1336426.513244196</v>
       </c>
       <c r="AE3" t="n">
-        <v>1614360.438069457</v>
+        <v>1828557.714397358</v>
       </c>
       <c r="AF3" t="n">
         <v>4.86563430561039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1460288.143629213</v>
+        <v>1654042.732532144</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>905.7139430683162</v>
+        <v>1042.651755626708</v>
       </c>
       <c r="AB4" t="n">
-        <v>1239.237774185196</v>
+        <v>1426.602130597506</v>
       </c>
       <c r="AC4" t="n">
-        <v>1120.9666602981</v>
+        <v>1290.449225501945</v>
       </c>
       <c r="AD4" t="n">
-        <v>905713.9430683162</v>
+        <v>1042651.755626708</v>
       </c>
       <c r="AE4" t="n">
-        <v>1239237.774185196</v>
+        <v>1426602.130597506</v>
       </c>
       <c r="AF4" t="n">
         <v>5.708277639329553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.49583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1120966.6602981</v>
+        <v>1290449.225501945</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.3579470443402</v>
+        <v>912.5072383323836</v>
       </c>
       <c r="AB5" t="n">
-        <v>1074.561390693389</v>
+        <v>1248.532660464528</v>
       </c>
       <c r="AC5" t="n">
-        <v>972.0067597219955</v>
+        <v>1129.374455676387</v>
       </c>
       <c r="AD5" t="n">
-        <v>785357.9470443402</v>
+        <v>912507.2383323836</v>
       </c>
       <c r="AE5" t="n">
-        <v>1074561.390693389</v>
+        <v>1248532.660464528</v>
       </c>
       <c r="AF5" t="n">
         <v>6.16481931142058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.45833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>972006.7597219956</v>
+        <v>1129374.455676387</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>726.3036093591669</v>
+        <v>853.5202204549146</v>
       </c>
       <c r="AB6" t="n">
-        <v>993.760640579029</v>
+        <v>1167.824020281009</v>
       </c>
       <c r="AC6" t="n">
-        <v>898.9175197939848</v>
+        <v>1056.368534836696</v>
       </c>
       <c r="AD6" t="n">
-        <v>726303.6093591669</v>
+        <v>853520.2204549146</v>
       </c>
       <c r="AE6" t="n">
-        <v>993760.640579029</v>
+        <v>1167824.020281009</v>
       </c>
       <c r="AF6" t="n">
         <v>6.387063194699215e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.575</v>
       </c>
       <c r="AH6" t="n">
-        <v>898917.5197939847</v>
+        <v>1056368.534836696</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>724.7927903835557</v>
+        <v>852.0094014793034</v>
       </c>
       <c r="AB7" t="n">
-        <v>991.6934714039687</v>
+        <v>1165.756851105949</v>
       </c>
       <c r="AC7" t="n">
-        <v>897.0476383437018</v>
+        <v>1054.498653386413</v>
       </c>
       <c r="AD7" t="n">
-        <v>724792.7903835557</v>
+        <v>852009.4014793034</v>
       </c>
       <c r="AE7" t="n">
-        <v>991693.4714039688</v>
+        <v>1165756.851105949</v>
       </c>
       <c r="AF7" t="n">
         <v>6.404013999356059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.50833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>897047.6383437018</v>
+        <v>1054498.653386413</v>
       </c>
     </row>
   </sheetData>
@@ -3379,28 +3379,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2046.017992545052</v>
+        <v>2278.249686921165</v>
       </c>
       <c r="AB2" t="n">
-        <v>2799.452081343462</v>
+        <v>3117.201730928313</v>
       </c>
       <c r="AC2" t="n">
-        <v>2532.276303755714</v>
+        <v>2819.700372748504</v>
       </c>
       <c r="AD2" t="n">
-        <v>2046017.992545052</v>
+        <v>2278249.686921164</v>
       </c>
       <c r="AE2" t="n">
-        <v>2799452.081343462</v>
+        <v>3117201.730928313</v>
       </c>
       <c r="AF2" t="n">
         <v>3.621257463806925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2532276.303755714</v>
+        <v>2819700.372748504</v>
       </c>
     </row>
     <row r="3">
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>936.2879566132387</v>
+        <v>1081.394708638375</v>
       </c>
       <c r="AB3" t="n">
-        <v>1281.070488347641</v>
+        <v>1479.611948126525</v>
       </c>
       <c r="AC3" t="n">
-        <v>1158.806918933464</v>
+        <v>1338.399860445741</v>
       </c>
       <c r="AD3" t="n">
-        <v>936287.9566132388</v>
+        <v>1081394.708638375</v>
       </c>
       <c r="AE3" t="n">
-        <v>1281070.488347641</v>
+        <v>1479611.948126525</v>
       </c>
       <c r="AF3" t="n">
         <v>5.848994385258829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.3625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1158806.918933464</v>
+        <v>1338399.860445741</v>
       </c>
     </row>
     <row r="4">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>738.2864279926836</v>
+        <v>873.7457852566356</v>
       </c>
       <c r="AB4" t="n">
-        <v>1010.156061678055</v>
+        <v>1195.497530331668</v>
       </c>
       <c r="AC4" t="n">
-        <v>913.7481849144375</v>
+        <v>1081.400923928135</v>
       </c>
       <c r="AD4" t="n">
-        <v>738286.4279926836</v>
+        <v>873745.7852566356</v>
       </c>
       <c r="AE4" t="n">
-        <v>1010156.061678055</v>
+        <v>1195497.530331668</v>
       </c>
       <c r="AF4" t="n">
         <v>6.663014814466509e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>913748.1849144375</v>
+        <v>1081400.923928135</v>
       </c>
     </row>
     <row r="5">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>685.9668967201945</v>
+        <v>811.7798702528191</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.5701708162183</v>
+        <v>1110.713031680214</v>
       </c>
       <c r="AC5" t="n">
-        <v>848.9943510050258</v>
+        <v>1004.708138832185</v>
       </c>
       <c r="AD5" t="n">
-        <v>685966.8967201945</v>
+        <v>811779.8702528191</v>
       </c>
       <c r="AE5" t="n">
-        <v>938570.1708162182</v>
+        <v>1110713.031680214</v>
       </c>
       <c r="AF5" t="n">
         <v>6.90124459071058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.88333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>848994.3510050258</v>
+        <v>1004708.138832185</v>
       </c>
     </row>
     <row r="6">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>688.039402965096</v>
+        <v>813.8523764977206</v>
       </c>
       <c r="AB6" t="n">
-        <v>941.405865293015</v>
+        <v>1113.548726157011</v>
       </c>
       <c r="AC6" t="n">
-        <v>851.5594107808791</v>
+        <v>1007.273198608038</v>
       </c>
       <c r="AD6" t="n">
-        <v>688039.4029650959</v>
+        <v>813852.3764977206</v>
       </c>
       <c r="AE6" t="n">
-        <v>941405.865293015</v>
+        <v>1113548.726157011</v>
       </c>
       <c r="AF6" t="n">
         <v>6.900420266225305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.8875</v>
       </c>
       <c r="AH6" t="n">
-        <v>851559.4107808792</v>
+        <v>1007273.198608038</v>
       </c>
     </row>
   </sheetData>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>720.2686226603877</v>
+        <v>860.6008487562856</v>
       </c>
       <c r="AB2" t="n">
-        <v>985.5033055329367</v>
+        <v>1177.512048298219</v>
       </c>
       <c r="AC2" t="n">
-        <v>891.4482532154492</v>
+        <v>1065.131951057176</v>
       </c>
       <c r="AD2" t="n">
-        <v>720268.6226603877</v>
+        <v>860600.8487562856</v>
       </c>
       <c r="AE2" t="n">
-        <v>985503.3055329367</v>
+        <v>1177512.048298219</v>
       </c>
       <c r="AF2" t="n">
         <v>8.123657860204342e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>891448.2532154492</v>
+        <v>1065131.951057176</v>
       </c>
     </row>
     <row r="3">
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>641.8809272773793</v>
+        <v>772.8576716335507</v>
       </c>
       <c r="AB3" t="n">
-        <v>878.2498024888534</v>
+        <v>1057.457962403117</v>
       </c>
       <c r="AC3" t="n">
-        <v>794.430873970656</v>
+        <v>956.5356586229343</v>
       </c>
       <c r="AD3" t="n">
-        <v>641880.9272773793</v>
+        <v>772857.6716335507</v>
       </c>
       <c r="AE3" t="n">
-        <v>878249.8024888535</v>
+        <v>1057457.962403117</v>
       </c>
       <c r="AF3" t="n">
         <v>8.682838898382844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>794430.873970656</v>
+        <v>956535.6586229343</v>
       </c>
     </row>
   </sheetData>
@@ -4503,28 +4503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1050.128776557977</v>
+        <v>1220.780873451816</v>
       </c>
       <c r="AB2" t="n">
-        <v>1436.832520498551</v>
+        <v>1670.326248107872</v>
       </c>
       <c r="AC2" t="n">
-        <v>1299.703241349277</v>
+        <v>1510.912655306069</v>
       </c>
       <c r="AD2" t="n">
-        <v>1050128.776557977</v>
+        <v>1220780.873451816</v>
       </c>
       <c r="AE2" t="n">
-        <v>1436832.520498551</v>
+        <v>1670326.248107872</v>
       </c>
       <c r="AF2" t="n">
         <v>6.013771542513162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1299703.241349277</v>
+        <v>1510912.655306069</v>
       </c>
     </row>
     <row r="3">
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>656.5218813211631</v>
+        <v>779.7279731836841</v>
       </c>
       <c r="AB3" t="n">
-        <v>898.2822017248644</v>
+        <v>1066.858212080322</v>
       </c>
       <c r="AC3" t="n">
-        <v>812.5514091392309</v>
+        <v>965.0387616642806</v>
       </c>
       <c r="AD3" t="n">
-        <v>656521.881321163</v>
+        <v>779727.9731836841</v>
       </c>
       <c r="AE3" t="n">
-        <v>898282.2017248644</v>
+        <v>1066858.212080322</v>
       </c>
       <c r="AF3" t="n">
         <v>7.911415135043411e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>812551.409139231</v>
+        <v>965038.7616642807</v>
       </c>
     </row>
     <row r="4">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>653.6518446090827</v>
+        <v>776.8579364716038</v>
       </c>
       <c r="AB4" t="n">
-        <v>894.3552908783125</v>
+        <v>1062.931301233771</v>
       </c>
       <c r="AC4" t="n">
-        <v>808.9992771524201</v>
+        <v>961.4866296774698</v>
       </c>
       <c r="AD4" t="n">
-        <v>653651.8446090827</v>
+        <v>776857.9364716038</v>
       </c>
       <c r="AE4" t="n">
-        <v>894355.2908783125</v>
+        <v>1062931.301233771</v>
       </c>
       <c r="AF4" t="n">
         <v>7.951271130685947e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>808999.27715242</v>
+        <v>961486.6296774697</v>
       </c>
     </row>
   </sheetData>
@@ -5012,28 +5012,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>652.0180241144169</v>
+        <v>790.7866719820746</v>
       </c>
       <c r="AB2" t="n">
-        <v>892.1198255984378</v>
+        <v>1081.989211651639</v>
       </c>
       <c r="AC2" t="n">
-        <v>806.9771615413614</v>
+        <v>978.725679873002</v>
       </c>
       <c r="AD2" t="n">
-        <v>652018.0241144169</v>
+        <v>790786.6719820746</v>
       </c>
       <c r="AE2" t="n">
-        <v>892119.8255984378</v>
+        <v>1081989.211651639</v>
       </c>
       <c r="AF2" t="n">
         <v>9.265007056164196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.63333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>806977.1615413614</v>
+        <v>978725.679873002</v>
       </c>
     </row>
     <row r="3">
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.793253208689</v>
+        <v>793.5619010763467</v>
       </c>
       <c r="AB3" t="n">
-        <v>895.9170164796875</v>
+        <v>1085.786402532888</v>
       </c>
       <c r="AC3" t="n">
-        <v>810.4119538542955</v>
+        <v>982.1604721859361</v>
       </c>
       <c r="AD3" t="n">
-        <v>654793.2532086889</v>
+        <v>793561.9010763466</v>
       </c>
       <c r="AE3" t="n">
-        <v>895917.0164796875</v>
+        <v>1085786.402532888</v>
       </c>
       <c r="AF3" t="n">
         <v>9.276208615082822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.59583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>810411.9538542954</v>
+        <v>982160.4721859361</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2288.40538828429</v>
+        <v>2531.061285947256</v>
       </c>
       <c r="AB2" t="n">
-        <v>3131.097209571266</v>
+        <v>3463.109713976422</v>
       </c>
       <c r="AC2" t="n">
-        <v>2832.2696864122</v>
+        <v>3132.595383379392</v>
       </c>
       <c r="AD2" t="n">
-        <v>2288405.38828429</v>
+        <v>2531061.285947256</v>
       </c>
       <c r="AE2" t="n">
-        <v>3131097.209571267</v>
+        <v>3463109.713976422</v>
       </c>
       <c r="AF2" t="n">
         <v>3.341120685955508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2832269.6864122</v>
+        <v>3132595.383379392</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>997.371633110726</v>
+        <v>1142.938243785423</v>
       </c>
       <c r="AB3" t="n">
-        <v>1364.647869353118</v>
+        <v>1563.818528023864</v>
       </c>
       <c r="AC3" t="n">
-        <v>1234.40779199737</v>
+        <v>1414.569882542354</v>
       </c>
       <c r="AD3" t="n">
-        <v>997371.6331107259</v>
+        <v>1142938.243785423</v>
       </c>
       <c r="AE3" t="n">
-        <v>1364647.869353118</v>
+        <v>1563818.528023864</v>
       </c>
       <c r="AF3" t="n">
         <v>5.573763147462553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.06666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1234407.79199737</v>
+        <v>1414569.882542355</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>784.1299685831808</v>
+        <v>910.2787218602244</v>
       </c>
       <c r="AB4" t="n">
-        <v>1072.881216388245</v>
+        <v>1245.483505912112</v>
       </c>
       <c r="AC4" t="n">
-        <v>970.4869388943944</v>
+        <v>1126.616308154938</v>
       </c>
       <c r="AD4" t="n">
-        <v>784129.9685831808</v>
+        <v>910278.7218602244</v>
       </c>
       <c r="AE4" t="n">
-        <v>1072881.216388245</v>
+        <v>1245483.505912112</v>
       </c>
       <c r="AF4" t="n">
         <v>6.397882117671152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.19166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>970486.9388943943</v>
+        <v>1126616.308154938</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>699.0947292115293</v>
+        <v>825.2766368774965</v>
       </c>
       <c r="AB5" t="n">
-        <v>956.532250389957</v>
+        <v>1129.179903211418</v>
       </c>
       <c r="AC5" t="n">
-        <v>865.2421549141837</v>
+        <v>1021.412558062867</v>
       </c>
       <c r="AD5" t="n">
-        <v>699094.7292115293</v>
+        <v>825276.6368774965</v>
       </c>
       <c r="AE5" t="n">
-        <v>956532.250389957</v>
+        <v>1129179.903211418</v>
       </c>
       <c r="AF5" t="n">
         <v>6.744985422351495e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.84583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>865242.1549141838</v>
+        <v>1021412.558062867</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>695.8014728133486</v>
+        <v>821.9833804793158</v>
       </c>
       <c r="AB6" t="n">
-        <v>952.0262716977479</v>
+        <v>1124.673924519208</v>
       </c>
       <c r="AC6" t="n">
-        <v>861.1662205041786</v>
+        <v>1017.336623652862</v>
       </c>
       <c r="AD6" t="n">
-        <v>695801.4728133486</v>
+        <v>821983.3804793158</v>
       </c>
       <c r="AE6" t="n">
-        <v>952026.2716977479</v>
+        <v>1124673.924519208</v>
       </c>
       <c r="AF6" t="n">
         <v>6.764291284025488e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.775</v>
       </c>
       <c r="AH6" t="n">
-        <v>861166.2205041785</v>
+        <v>1017336.623652862</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>671.628876362203</v>
+        <v>818.5596849457737</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.952258813599</v>
+        <v>1119.989473247429</v>
       </c>
       <c r="AC2" t="n">
-        <v>831.2487449900241</v>
+        <v>1013.099249835792</v>
       </c>
       <c r="AD2" t="n">
-        <v>671628.8763622029</v>
+        <v>818559.6849457737</v>
       </c>
       <c r="AE2" t="n">
-        <v>918952.258813599</v>
+        <v>1119989.473247429</v>
       </c>
       <c r="AF2" t="n">
         <v>9.570937386585466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>831248.7449900241</v>
+        <v>1013099.249835792</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1471.235453632285</v>
+        <v>1672.457122442474</v>
       </c>
       <c r="AB2" t="n">
-        <v>2013.009253987049</v>
+        <v>2288.329618526649</v>
       </c>
       <c r="AC2" t="n">
-        <v>1820.890476062757</v>
+        <v>2069.934651425256</v>
       </c>
       <c r="AD2" t="n">
-        <v>1471235.453632286</v>
+        <v>1672457.122442474</v>
       </c>
       <c r="AE2" t="n">
-        <v>2013009.253987049</v>
+        <v>2288329.618526649</v>
       </c>
       <c r="AF2" t="n">
         <v>4.633179223985486e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1820890.476062757</v>
+        <v>2069934.651425256</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.3720810481761</v>
+        <v>905.5088087919936</v>
       </c>
       <c r="AB3" t="n">
-        <v>1055.425311824576</v>
+        <v>1238.957100418446</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.6970013627667</v>
+        <v>1120.71277364172</v>
       </c>
       <c r="AD3" t="n">
-        <v>771372.0810481762</v>
+        <v>905508.8087919937</v>
       </c>
       <c r="AE3" t="n">
-        <v>1055425.311824576</v>
+        <v>1238957.100418446</v>
       </c>
       <c r="AF3" t="n">
         <v>6.832348352646424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.32916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>954697.0013627667</v>
+        <v>1120712.77364172</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.4972242906897</v>
+        <v>793.0455082509141</v>
       </c>
       <c r="AB4" t="n">
-        <v>914.667394290616</v>
+        <v>1085.079851087488</v>
       </c>
       <c r="AC4" t="n">
-        <v>827.3728219232694</v>
+        <v>981.5213530188336</v>
       </c>
       <c r="AD4" t="n">
-        <v>668497.2242906897</v>
+        <v>793045.508250914</v>
       </c>
       <c r="AE4" t="n">
-        <v>914667.394290616</v>
+        <v>1085079.851087488</v>
       </c>
       <c r="AF4" t="n">
         <v>7.361636867206964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>827372.8219232694</v>
+        <v>981521.3530188336</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>670.4035075263405</v>
+        <v>794.9517914865651</v>
       </c>
       <c r="AB5" t="n">
-        <v>917.2756551129145</v>
+        <v>1087.688111909787</v>
       </c>
       <c r="AC5" t="n">
-        <v>829.7321539934048</v>
+        <v>983.8806850889686</v>
       </c>
       <c r="AD5" t="n">
-        <v>670403.5075263405</v>
+        <v>794951.791486565</v>
       </c>
       <c r="AE5" t="n">
-        <v>917275.6551129145</v>
+        <v>1087688.111909786</v>
       </c>
       <c r="AF5" t="n">
         <v>7.364325885909218e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.35833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>829732.1539934048</v>
+        <v>983880.6850889686</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1824.955591499346</v>
+        <v>2046.896506049454</v>
       </c>
       <c r="AB2" t="n">
-        <v>2496.984751647896</v>
+        <v>2800.654102277465</v>
       </c>
       <c r="AC2" t="n">
-        <v>2258.67603149073</v>
+        <v>2533.363605498823</v>
       </c>
       <c r="AD2" t="n">
-        <v>1824955.591499346</v>
+        <v>2046896.506049454</v>
       </c>
       <c r="AE2" t="n">
-        <v>2496984.751647896</v>
+        <v>2800654.102277465</v>
       </c>
       <c r="AF2" t="n">
         <v>3.931244290412249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2258676.03149073</v>
+        <v>2533363.605498823</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>878.0473746308297</v>
+        <v>1022.779565713498</v>
       </c>
       <c r="AB3" t="n">
-        <v>1201.38315468617</v>
+        <v>1399.412123659107</v>
       </c>
       <c r="AC3" t="n">
-        <v>1086.724832554769</v>
+        <v>1265.854194664333</v>
       </c>
       <c r="AD3" t="n">
-        <v>878047.3746308297</v>
+        <v>1022779.565713498</v>
       </c>
       <c r="AE3" t="n">
-        <v>1201383.15468617</v>
+        <v>1399412.123659107</v>
       </c>
       <c r="AF3" t="n">
         <v>6.144975203112916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.68333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1086724.832554769</v>
+        <v>1265854.194664333</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>705.0869159802036</v>
+        <v>830.4496063883076</v>
       </c>
       <c r="AB4" t="n">
-        <v>964.7310246834801</v>
+        <v>1136.257788311418</v>
       </c>
       <c r="AC4" t="n">
-        <v>872.6584496961852</v>
+        <v>1027.814939742797</v>
       </c>
       <c r="AD4" t="n">
-        <v>705086.9159802035</v>
+        <v>830449.6063883076</v>
       </c>
       <c r="AE4" t="n">
-        <v>964731.02468348</v>
+        <v>1136257.788311418</v>
       </c>
       <c r="AF4" t="n">
         <v>6.927162945819496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.44583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>872658.4496961853</v>
+        <v>1027814.939742797</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.0365301232845</v>
+        <v>801.8164609355201</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.6654463103348</v>
+        <v>1097.080655497689</v>
       </c>
       <c r="AC5" t="n">
-        <v>849.0805335397038</v>
+        <v>992.3768174993596</v>
       </c>
       <c r="AD5" t="n">
-        <v>686036.5301232844</v>
+        <v>801816.4609355201</v>
       </c>
       <c r="AE5" t="n">
-        <v>938665.4463103348</v>
+        <v>1097080.655497689</v>
       </c>
       <c r="AF5" t="n">
         <v>7.046881242837323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.0125</v>
       </c>
       <c r="AH5" t="n">
-        <v>849080.5335397038</v>
+        <v>992376.8174993596</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>688.1066208134537</v>
+        <v>803.8865516256893</v>
       </c>
       <c r="AB6" t="n">
-        <v>941.4978357185803</v>
+        <v>1099.913044905934</v>
       </c>
       <c r="AC6" t="n">
-        <v>851.6426036781098</v>
+        <v>994.9388876377656</v>
       </c>
       <c r="AD6" t="n">
-        <v>688106.6208134537</v>
+        <v>803886.5516256894</v>
       </c>
       <c r="AE6" t="n">
-        <v>941497.8357185803</v>
+        <v>1099913.044905934</v>
       </c>
       <c r="AF6" t="n">
         <v>7.047727308540629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.00833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>851642.6036781098</v>
+        <v>994938.8876377656</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2886.455665948564</v>
+        <v>3169.543714856148</v>
       </c>
       <c r="AB2" t="n">
-        <v>3949.375983587724</v>
+        <v>4336.709541066395</v>
       </c>
       <c r="AC2" t="n">
-        <v>3572.45308269797</v>
+        <v>3922.820069076923</v>
       </c>
       <c r="AD2" t="n">
-        <v>2886455.665948564</v>
+        <v>3169543.714856148</v>
       </c>
       <c r="AE2" t="n">
-        <v>3949375.983587725</v>
+        <v>4336709.541066395</v>
       </c>
       <c r="AF2" t="n">
         <v>2.832664271413075e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.56666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3572453.08269797</v>
+        <v>3922820.069076923</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1113.122312327167</v>
+        <v>1269.226186729021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1523.023055216618</v>
+        <v>1736.611262990126</v>
       </c>
       <c r="AC3" t="n">
-        <v>1377.667872403027</v>
+        <v>1570.871521399563</v>
       </c>
       <c r="AD3" t="n">
-        <v>1113122.312327167</v>
+        <v>1269226.186729021</v>
       </c>
       <c r="AE3" t="n">
-        <v>1523023.055216618</v>
+        <v>1736611.262990126</v>
       </c>
       <c r="AF3" t="n">
         <v>5.086951260148269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.49583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1377667.872403027</v>
+        <v>1570871.521399563</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>869.922867858663</v>
+        <v>1006.501072306975</v>
       </c>
       <c r="AB4" t="n">
-        <v>1190.26684609255</v>
+        <v>1377.139170823858</v>
       </c>
       <c r="AC4" t="n">
-        <v>1076.669448851487</v>
+        <v>1245.706941187394</v>
       </c>
       <c r="AD4" t="n">
-        <v>869922.8678586631</v>
+        <v>1006501.072306975</v>
       </c>
       <c r="AE4" t="n">
-        <v>1190266.84609255</v>
+        <v>1377139.170823858</v>
       </c>
       <c r="AF4" t="n">
         <v>5.914907569726378e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.09166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1076669.448851487</v>
+        <v>1245706.941187394</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>749.330655498469</v>
+        <v>876.1460249700094</v>
       </c>
       <c r="AB5" t="n">
-        <v>1025.2672609884</v>
+        <v>1198.781644198609</v>
       </c>
       <c r="AC5" t="n">
-        <v>927.4171925713053</v>
+        <v>1084.371606576898</v>
       </c>
       <c r="AD5" t="n">
-        <v>749330.655498469</v>
+        <v>876146.0249700095</v>
       </c>
       <c r="AE5" t="n">
-        <v>1025267.2609884</v>
+        <v>1198781.644198609</v>
       </c>
       <c r="AF5" t="n">
         <v>6.379839840176882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.11666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>927417.1925713053</v>
+        <v>1084371.606576898</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>714.4840965534801</v>
+        <v>841.3667858327246</v>
       </c>
       <c r="AB6" t="n">
-        <v>977.5886617181845</v>
+        <v>1151.195154859234</v>
       </c>
       <c r="AC6" t="n">
-        <v>884.2889718981043</v>
+        <v>1041.326704992016</v>
       </c>
       <c r="AD6" t="n">
-        <v>714484.09655348</v>
+        <v>841366.7858327247</v>
       </c>
       <c r="AE6" t="n">
-        <v>977588.6617181846</v>
+        <v>1151195.154859234</v>
       </c>
       <c r="AF6" t="n">
         <v>6.510590023760977e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.6125</v>
       </c>
       <c r="AH6" t="n">
-        <v>884288.9718981043</v>
+        <v>1041326.704992016</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>716.612170086018</v>
+        <v>843.4948593652625</v>
       </c>
       <c r="AB7" t="n">
-        <v>980.5003858093811</v>
+        <v>1154.106878950431</v>
       </c>
       <c r="AC7" t="n">
-        <v>886.9228051286675</v>
+        <v>1043.960538222579</v>
       </c>
       <c r="AD7" t="n">
-        <v>716612.1700860179</v>
+        <v>843494.8593652626</v>
       </c>
       <c r="AE7" t="n">
-        <v>980500.3858093811</v>
+        <v>1154106.878950431</v>
       </c>
       <c r="AF7" t="n">
         <v>6.508667226943563e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.62083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>886922.8051286675</v>
+        <v>1043960.538222579</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1178.434672392646</v>
+        <v>1359.174119542295</v>
       </c>
       <c r="AB2" t="n">
-        <v>1612.386307636174</v>
+        <v>1859.681992887979</v>
       </c>
       <c r="AC2" t="n">
-        <v>1458.502421433772</v>
+        <v>1682.19655356682</v>
       </c>
       <c r="AD2" t="n">
-        <v>1178434.672392646</v>
+        <v>1359174.119542295</v>
       </c>
       <c r="AE2" t="n">
-        <v>1612386.307636174</v>
+        <v>1859681.992887979</v>
       </c>
       <c r="AF2" t="n">
         <v>5.498833990573421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1458502.421433772</v>
+        <v>1682196.55356682</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.1978501377251</v>
+        <v>801.8871761896995</v>
       </c>
       <c r="AB3" t="n">
-        <v>927.940218535938</v>
+        <v>1097.177411228194</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.3789064511437</v>
+        <v>992.4643389987427</v>
       </c>
       <c r="AD3" t="n">
-        <v>678197.8501377251</v>
+        <v>801887.1761896996</v>
       </c>
       <c r="AE3" t="n">
-        <v>927940.2185359381</v>
+        <v>1097177.411228194</v>
       </c>
       <c r="AF3" t="n">
         <v>7.603444384524364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>839378.9064511438</v>
+        <v>992464.3389987428</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>651.5447712051374</v>
+        <v>784.7528282164608</v>
       </c>
       <c r="AB4" t="n">
-        <v>891.4723000895167</v>
+        <v>1073.733440417126</v>
       </c>
       <c r="AC4" t="n">
-        <v>806.3914349582038</v>
+        <v>971.2578278580631</v>
       </c>
       <c r="AD4" t="n">
-        <v>651544.7712051374</v>
+        <v>784752.8282164608</v>
       </c>
       <c r="AE4" t="n">
-        <v>891472.3000895167</v>
+        <v>1073733.440417126</v>
       </c>
       <c r="AF4" t="n">
         <v>7.740555676704312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.80416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>806391.4349582038</v>
+        <v>971257.8278580632</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>824.6181925456304</v>
+        <v>974.9316412174944</v>
       </c>
       <c r="AB2" t="n">
-        <v>1128.278990628045</v>
+        <v>1333.944482462226</v>
       </c>
       <c r="AC2" t="n">
-        <v>1020.597627312013</v>
+        <v>1206.63469325887</v>
       </c>
       <c r="AD2" t="n">
-        <v>824618.1925456305</v>
+        <v>974931.6412174944</v>
       </c>
       <c r="AE2" t="n">
-        <v>1128278.990628045</v>
+        <v>1333944.482462226</v>
       </c>
       <c r="AF2" t="n">
         <v>7.316088515007412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1020597.627312013</v>
+        <v>1206634.69325887</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>636.8051291550938</v>
+        <v>768.3840308973685</v>
       </c>
       <c r="AB3" t="n">
-        <v>871.3048715695334</v>
+        <v>1051.336929784773</v>
       </c>
       <c r="AC3" t="n">
-        <v>788.1487575110041</v>
+        <v>950.9988087667612</v>
       </c>
       <c r="AD3" t="n">
-        <v>636805.1291550938</v>
+        <v>768384.0308973684</v>
       </c>
       <c r="AE3" t="n">
-        <v>871304.8715695334</v>
+        <v>1051336.929784772</v>
       </c>
       <c r="AF3" t="n">
         <v>8.42486759551744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>788148.7575110041</v>
+        <v>950998.8087667612</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>656.9298968020033</v>
+        <v>796.4852426480071</v>
       </c>
       <c r="AB2" t="n">
-        <v>898.8404665061229</v>
+        <v>1089.786247439962</v>
       </c>
       <c r="AC2" t="n">
-        <v>813.0563939132956</v>
+        <v>985.7785775088963</v>
       </c>
       <c r="AD2" t="n">
-        <v>656929.8968020034</v>
+        <v>796485.2426480071</v>
       </c>
       <c r="AE2" t="n">
-        <v>898840.4665061228</v>
+        <v>1089786.247439962</v>
       </c>
       <c r="AF2" t="n">
         <v>8.837046753736384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.8625</v>
       </c>
       <c r="AH2" t="n">
-        <v>813056.3939132956</v>
+        <v>985778.5775088964</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.2968467955699</v>
+        <v>786.7507074150884</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.6601025071478</v>
+        <v>1076.467026876898</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.1339453556258</v>
+        <v>973.7305246627274</v>
       </c>
       <c r="AD3" t="n">
-        <v>647296.8467955699</v>
+        <v>786750.7074150884</v>
       </c>
       <c r="AE3" t="n">
-        <v>885660.1025071478</v>
+        <v>1076467.026876898</v>
       </c>
       <c r="AF3" t="n">
         <v>8.965607877275327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.45</v>
       </c>
       <c r="AH3" t="n">
-        <v>801133.9453556258</v>
+        <v>973730.5246627274</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>711.8612020574624</v>
+        <v>875.8444295515975</v>
       </c>
       <c r="AB2" t="n">
-        <v>973.999901754795</v>
+        <v>1198.368988041687</v>
       </c>
       <c r="AC2" t="n">
-        <v>881.0427181487644</v>
+        <v>1083.998333744426</v>
       </c>
       <c r="AD2" t="n">
-        <v>711861.2020574624</v>
+        <v>875844.4295515975</v>
       </c>
       <c r="AE2" t="n">
-        <v>973999.901754795</v>
+        <v>1198368.988041687</v>
       </c>
       <c r="AF2" t="n">
         <v>9.779378609610359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.49583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>881042.7181487643</v>
+        <v>1083998.333744426</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1639.026125199373</v>
+        <v>1850.540048782885</v>
       </c>
       <c r="AB2" t="n">
-        <v>2242.587853227132</v>
+        <v>2531.990534809829</v>
       </c>
       <c r="AC2" t="n">
-        <v>2028.558416006954</v>
+        <v>2290.340911838613</v>
       </c>
       <c r="AD2" t="n">
-        <v>1639026.125199373</v>
+        <v>1850540.048782885</v>
       </c>
       <c r="AE2" t="n">
-        <v>2242587.853227132</v>
+        <v>2531990.534809829</v>
       </c>
       <c r="AF2" t="n">
         <v>4.265325603068785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.4875</v>
       </c>
       <c r="AH2" t="n">
-        <v>2028558.416006954</v>
+        <v>2290340.911838613</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>818.9897887612198</v>
+        <v>963.2279858069161</v>
       </c>
       <c r="AB3" t="n">
-        <v>1120.577960262564</v>
+        <v>1317.931024800637</v>
       </c>
       <c r="AC3" t="n">
-        <v>1013.631572476149</v>
+        <v>1192.149537521474</v>
       </c>
       <c r="AD3" t="n">
-        <v>818989.7887612197</v>
+        <v>963227.985806916</v>
       </c>
       <c r="AE3" t="n">
-        <v>1120577.960262564</v>
+        <v>1317931.024800637</v>
       </c>
       <c r="AF3" t="n">
         <v>6.474108329193943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1013631.572476149</v>
+        <v>1192149.537521474</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.5706219130964</v>
+        <v>807.5347941854349</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.9232377920769</v>
+        <v>1104.904731325281</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.790914746697</v>
+        <v>999.4541745111253</v>
       </c>
       <c r="AD4" t="n">
-        <v>682570.6219130964</v>
+        <v>807534.7941854348</v>
       </c>
       <c r="AE4" t="n">
-        <v>933923.2377920769</v>
+        <v>1104904.731325281</v>
       </c>
       <c r="AF4" t="n">
         <v>7.160057592506147e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>844790.9147466971</v>
+        <v>999454.1745111253</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.0116779712658</v>
+        <v>802.9758502436042</v>
       </c>
       <c r="AB5" t="n">
-        <v>927.6854895644523</v>
+        <v>1098.666983097656</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.1484884551822</v>
+        <v>993.8117482196106</v>
       </c>
       <c r="AD5" t="n">
-        <v>678011.6779712659</v>
+        <v>802975.8502436042</v>
       </c>
       <c r="AE5" t="n">
-        <v>927685.4895644523</v>
+        <v>1098666.983097656</v>
       </c>
       <c r="AF5" t="n">
         <v>7.198335040300361e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.175</v>
       </c>
       <c r="AH5" t="n">
-        <v>839148.4884551823</v>
+        <v>993811.7482196107</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2572.737024122111</v>
+        <v>2835.516416305544</v>
       </c>
       <c r="AB2" t="n">
-        <v>3520.132297551069</v>
+        <v>3879.678654945053</v>
       </c>
       <c r="AC2" t="n">
-        <v>3184.175811609371</v>
+        <v>3509.407569280142</v>
       </c>
       <c r="AD2" t="n">
-        <v>2572737.024122111</v>
+        <v>2835516.416305544</v>
       </c>
       <c r="AE2" t="n">
-        <v>3520132.297551069</v>
+        <v>3879678.654945053</v>
       </c>
       <c r="AF2" t="n">
         <v>3.073952831057876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3184175.811609371</v>
+        <v>3509407.569280141</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1050.393518958016</v>
+        <v>1206.140614226595</v>
       </c>
       <c r="AB3" t="n">
-        <v>1437.194752729896</v>
+        <v>1650.294799553271</v>
       </c>
       <c r="AC3" t="n">
-        <v>1300.030902644858</v>
+        <v>1492.792980087204</v>
       </c>
       <c r="AD3" t="n">
-        <v>1050393.518958016</v>
+        <v>1206140.614226595</v>
       </c>
       <c r="AE3" t="n">
-        <v>1437194.752729896</v>
+        <v>1650294.799553271</v>
       </c>
       <c r="AF3" t="n">
         <v>5.318594771752356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.79166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1300030.902644858</v>
+        <v>1492792.980087204</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>819.5024843271004</v>
+        <v>955.7769220097587</v>
       </c>
       <c r="AB4" t="n">
-        <v>1121.279452954334</v>
+        <v>1307.736150595631</v>
       </c>
       <c r="AC4" t="n">
-        <v>1014.266115689968</v>
+        <v>1182.927647801999</v>
       </c>
       <c r="AD4" t="n">
-        <v>819502.4843271005</v>
+        <v>955776.9220097587</v>
       </c>
       <c r="AE4" t="n">
-        <v>1121279.452954334</v>
+        <v>1307736.150595631</v>
       </c>
       <c r="AF4" t="n">
         <v>6.158517697205709e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.59166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1014266.115689968</v>
+        <v>1182927.647801999</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>718.1988926159854</v>
+        <v>844.7370015056837</v>
       </c>
       <c r="AB5" t="n">
-        <v>982.6714095761404</v>
+        <v>1155.806432626399</v>
       </c>
       <c r="AC5" t="n">
-        <v>888.8866294341783</v>
+        <v>1045.497888881051</v>
       </c>
       <c r="AD5" t="n">
-        <v>718198.8926159854</v>
+        <v>844737.0015056836</v>
       </c>
       <c r="AE5" t="n">
-        <v>982671.4095761403</v>
+        <v>1155806.432626399</v>
       </c>
       <c r="AF5" t="n">
         <v>6.565312375654106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.94583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>888886.6294341784</v>
+        <v>1045497.888881051</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>703.498381604123</v>
+        <v>830.0364904938212</v>
       </c>
       <c r="AB6" t="n">
-        <v>962.557521868936</v>
+        <v>1135.692544919194</v>
       </c>
       <c r="AC6" t="n">
-        <v>870.6923829397308</v>
+        <v>1027.303642386604</v>
       </c>
       <c r="AD6" t="n">
-        <v>703498.3816041229</v>
+        <v>830036.4904938212</v>
       </c>
       <c r="AE6" t="n">
-        <v>962557.521868936</v>
+        <v>1135692.544919194</v>
       </c>
       <c r="AF6" t="n">
         <v>6.641561812967138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.65833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>870692.3829397308</v>
+        <v>1027303.642386604</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>705.674238619702</v>
+        <v>832.2123475094004</v>
       </c>
       <c r="AB7" t="n">
-        <v>965.5346254296883</v>
+        <v>1138.669648479946</v>
       </c>
       <c r="AC7" t="n">
-        <v>873.3853559150358</v>
+        <v>1029.996615361909</v>
       </c>
       <c r="AD7" t="n">
-        <v>705674.2386197021</v>
+        <v>832212.3475094003</v>
       </c>
       <c r="AE7" t="n">
-        <v>965534.6254296883</v>
+        <v>1138669.648479946</v>
       </c>
       <c r="AF7" t="n">
         <v>6.641168774630473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.65833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>873385.3559150358</v>
+        <v>1029996.615361909</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>809.8520086076448</v>
+        <v>999.3735798936398</v>
       </c>
       <c r="AB2" t="n">
-        <v>1108.075246326034</v>
+        <v>1367.38702126116</v>
       </c>
       <c r="AC2" t="n">
-        <v>1002.322100010052</v>
+        <v>1236.885523091732</v>
       </c>
       <c r="AD2" t="n">
-        <v>809852.0086076448</v>
+        <v>999373.5798936398</v>
       </c>
       <c r="AE2" t="n">
-        <v>1108075.246326034</v>
+        <v>1367387.02126116</v>
       </c>
       <c r="AF2" t="n">
         <v>9.673816990494224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.07083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1002322.100010052</v>
+        <v>1236885.523091732</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>928.2729256902071</v>
+        <v>1088.771593900173</v>
       </c>
       <c r="AB2" t="n">
-        <v>1270.10396944054</v>
+        <v>1489.705327986926</v>
       </c>
       <c r="AC2" t="n">
-        <v>1148.887029199251</v>
+        <v>1347.529942298413</v>
       </c>
       <c r="AD2" t="n">
-        <v>928272.925690207</v>
+        <v>1088771.593900173</v>
       </c>
       <c r="AE2" t="n">
-        <v>1270103.96944054</v>
+        <v>1489705.327986926</v>
       </c>
       <c r="AF2" t="n">
         <v>6.618986917932835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.725</v>
       </c>
       <c r="AH2" t="n">
-        <v>1148887.029199251</v>
+        <v>1347529.942298413</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.2909675409354</v>
+        <v>777.4603121693578</v>
       </c>
       <c r="AB3" t="n">
-        <v>882.9155700178095</v>
+        <v>1063.755498238378</v>
       </c>
       <c r="AC3" t="n">
-        <v>798.6513471950944</v>
+        <v>962.2321664767253</v>
       </c>
       <c r="AD3" t="n">
-        <v>645290.9675409354</v>
+        <v>777460.3121693579</v>
       </c>
       <c r="AE3" t="n">
-        <v>882915.5700178095</v>
+        <v>1063755.498238378</v>
       </c>
       <c r="AF3" t="n">
         <v>8.170157652489623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.50833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>798651.3471950945</v>
+        <v>962232.1664767253</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>646.6736406572825</v>
+        <v>778.7415000592198</v>
       </c>
       <c r="AB4" t="n">
-        <v>884.8074043748286</v>
+        <v>1065.508476031308</v>
       </c>
       <c r="AC4" t="n">
-        <v>800.3626275362857</v>
+        <v>963.8178425294175</v>
       </c>
       <c r="AD4" t="n">
-        <v>646673.6406572824</v>
+        <v>778741.5000592198</v>
       </c>
       <c r="AE4" t="n">
-        <v>884807.4043748286</v>
+        <v>1065508.476031308</v>
       </c>
       <c r="AF4" t="n">
         <v>8.181593897851637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>800362.6275362857</v>
+        <v>963817.8425294175</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1319.624507199334</v>
+        <v>1501.101198424951</v>
       </c>
       <c r="AB2" t="n">
-        <v>1805.568468474586</v>
+        <v>2053.872883596044</v>
       </c>
       <c r="AC2" t="n">
-        <v>1633.247547974632</v>
+        <v>1857.854138214334</v>
       </c>
       <c r="AD2" t="n">
-        <v>1319624.507199334</v>
+        <v>1501101.198424951</v>
       </c>
       <c r="AE2" t="n">
-        <v>1805568.468474586</v>
+        <v>2053872.883596044</v>
       </c>
       <c r="AF2" t="n">
         <v>5.038403296134438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.27916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1633247.547974632</v>
+        <v>1857854.138214334</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>717.1450931302211</v>
+        <v>850.880198999151</v>
       </c>
       <c r="AB3" t="n">
-        <v>981.2295546293655</v>
+        <v>1164.211826455706</v>
       </c>
       <c r="AC3" t="n">
-        <v>887.5823830998675</v>
+        <v>1053.101083720334</v>
       </c>
       <c r="AD3" t="n">
-        <v>717145.0931302211</v>
+        <v>850880.198999151</v>
       </c>
       <c r="AE3" t="n">
-        <v>981229.5546293654</v>
+        <v>1164211.826455706</v>
       </c>
       <c r="AF3" t="n">
         <v>7.214382523982668e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.73333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>887582.3830998675</v>
+        <v>1053101.083720334</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.1626438080619</v>
+        <v>784.3769671466504</v>
       </c>
       <c r="AB4" t="n">
-        <v>903.2636535785446</v>
+        <v>1073.219170719591</v>
       </c>
       <c r="AC4" t="n">
-        <v>817.0574382195075</v>
+        <v>970.7926393386795</v>
       </c>
       <c r="AD4" t="n">
-        <v>660162.643808062</v>
+        <v>784376.9671466504</v>
       </c>
       <c r="AE4" t="n">
-        <v>903263.6535785446</v>
+        <v>1073219.170719591</v>
       </c>
       <c r="AF4" t="n">
         <v>7.538858473508644e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>817057.4382195075</v>
+        <v>970792.6393386795</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>661.1186368378571</v>
+        <v>785.3329601764456</v>
       </c>
       <c r="AB5" t="n">
-        <v>904.5716854173462</v>
+        <v>1074.527202558393</v>
       </c>
       <c r="AC5" t="n">
-        <v>818.2406333354481</v>
+        <v>971.9758344546199</v>
       </c>
       <c r="AD5" t="n">
-        <v>661118.6368378572</v>
+        <v>785332.9601764455</v>
       </c>
       <c r="AE5" t="n">
-        <v>904571.6854173462</v>
+        <v>1074527.202558393</v>
       </c>
       <c r="AF5" t="n">
         <v>7.549504617358997e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>818240.6333354481</v>
+        <v>971975.8344546199</v>
       </c>
     </row>
   </sheetData>
